--- a/public/import/user_FIX.xlsx
+++ b/public/import/user_FIX.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="261">
   <si>
     <t xml:space="preserve">nama_lengkap</t>
   </si>
@@ -76,10 +76,10 @@
     <t xml:space="preserve">complete123</t>
   </si>
   <si>
-    <t xml:space="preserve">ANDRIANA SAPUTRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andriana</t>
+    <t xml:space="preserve">VACANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsfcsw1</t>
   </si>
   <si>
     <t xml:space="preserve">PT.MSI</t>
@@ -130,10 +130,10 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">NAMA AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arlimit</t>
+    <t xml:space="preserve">YULIANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuli</t>
   </si>
   <si>
     <t xml:space="preserve">AR</t>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t xml:space="preserve">CWO10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VACANT</t>
   </si>
   <si>
     <t xml:space="preserve">dsfcsw3</t>
@@ -923,28 +920,38 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{4377CBB5-0A3F-423C-9560-5E17C44AE903}">
-  <header guid="{B022009A-EA85-45F5-8666-9E1AC6EDF584}" dateTime="2021-10-28T14:16:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="12" maxSheetId="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{EAD39096-F093-429F-9A48-AF63F24B0A34}">
+  <header guid="{E50ADBDC-ECE3-4A38-B58B-D565326FD78E}" dateTime="2021-10-28T14:16:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="12" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{6DABDE27-CCCD-4B74-BB92-5A55291F32C8}" dateTime="2021-10-28T14:17:00.000000000Z" userName=" " r:id="rId2" minRId="13" maxRId="57" maxSheetId="2">
+  <header guid="{08CAFF44-817C-41F7-9CEA-26029602BB41}" dateTime="2021-10-28T14:17:00.000000000Z" userName=" " r:id="rId2" minRId="13" maxRId="57" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{F46AF4C9-20A7-4ABD-BEDC-829151ADBB7C}" dateTime="2021-10-28T14:18:00.000000000Z" userName=" " r:id="rId3" minRId="58" maxRId="61" maxSheetId="2">
+  <header guid="{B1BF8015-0F59-4D42-9311-F539620FC53C}" dateTime="2021-10-28T14:18:00.000000000Z" userName=" " r:id="rId3" minRId="58" maxRId="61" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{0DA36A53-AF78-40C6-9A66-45AE8AA6F910}" dateTime="2021-10-28T14:56:00.000000000Z" userName=" " r:id="rId4" minRId="62" maxRId="77" maxSheetId="2">
+  <header guid="{3F9C3146-D00D-4385-82B0-648621ED9371}" dateTime="2021-10-28T14:56:00.000000000Z" userName=" " r:id="rId4" minRId="62" maxRId="77" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{4377CBB5-0A3F-423C-9560-5E17C44AE903}" dateTime="2021-10-28T14:57:00.000000000Z" userName=" " r:id="rId5" minRId="78" maxRId="86" maxSheetId="2">
+  <header guid="{C994A370-EA7F-4198-9000-3561D9872904}" dateTime="2021-10-28T14:57:00.000000000Z" userName=" " r:id="rId5" minRId="78" maxRId="86" maxSheetId="2">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{37739D07-5615-4486-A00F-6612693C27B1}" dateTime="2021-11-03T21:02:00.000000000Z" userName=" " r:id="rId6" minRId="87" maxRId="88" maxSheetId="2">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EAD39096-F093-429F-9A48-AF63F24B0A34}" dateTime="2021-11-03T21:05:00.000000000Z" userName=" " r:id="rId7" minRId="89" maxRId="90" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -1931,7 +1938,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -1947,7 +1953,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -1963,7 +1968,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -1979,7 +1983,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -1993,7 +1996,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2009,7 +2011,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2023,7 +2024,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2039,7 +2039,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2053,7 +2052,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2069,7 +2067,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2085,7 +2082,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2099,7 +2095,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2115,7 +2110,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2131,7 +2125,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2145,7 +2138,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2161,7 +2153,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2177,7 +2168,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2193,7 +2183,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2209,7 +2198,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2225,7 +2213,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2239,7 +2226,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2255,7 +2241,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2276,7 +2261,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2292,7 +2276,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2308,7 +2291,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2324,7 +2306,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2340,7 +2321,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2356,7 +2336,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2372,7 +2351,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2388,7 +2366,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2404,7 +2381,6 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
@@ -2418,12 +2394,141 @@
         <r>
           <rPr>
             <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">JBO</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="87" ua="false" sId="1">
+    <oc r="A3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">JBO</t>
+          <t xml:space="preserve">ANDRIANA SAPUTRA</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="A3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">VACANT</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="88" ua="false" sId="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">andriana</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">dsfcsw1</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="89" ua="false" sId="1">
+    <oc r="A8" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">NAMA AR</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="A8" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">YULIANA</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="90" ua="false" sId="1">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">arlimit</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="B8" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">yuli</t>
         </r>
       </is>
     </nc>
@@ -2442,11 +2547,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G101" activeCellId="0" sqref="G101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.83"/>
@@ -2867,10 +2972,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>11</v>
@@ -2885,7 +2990,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>16</v>
@@ -2896,10 +3001,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>11</v>
@@ -2914,7 +3019,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>16</v>
@@ -2925,10 +3030,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>11</v>
@@ -2943,7 +3048,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>16</v>
@@ -2954,10 +3059,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>11</v>
@@ -2972,7 +3077,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>16</v>
@@ -2983,10 +3088,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>43</v>
@@ -3012,10 +3117,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>11</v>
@@ -3030,7 +3135,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>16</v>
@@ -3041,10 +3146,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>11</v>
@@ -3059,7 +3164,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>16</v>
@@ -3070,10 +3175,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>11</v>
@@ -3088,7 +3193,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>16</v>
@@ -3099,10 +3204,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>11</v>
@@ -3117,7 +3222,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>16</v>
@@ -3128,10 +3233,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>11</v>
@@ -3146,7 +3251,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>16</v>
@@ -3157,10 +3262,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>43</v>
@@ -3186,10 +3291,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>77</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>43</v>
@@ -3201,7 +3306,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>35</v>
@@ -3215,10 +3320,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>80</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>11</v>
@@ -3230,10 +3335,10 @@
         <v>21</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>49</v>
@@ -3244,10 +3349,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>83</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>11</v>
@@ -3259,10 +3364,10 @@
         <v>21</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>49</v>
@@ -3273,10 +3378,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>11</v>
@@ -3288,10 +3393,10 @@
         <v>21</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>49</v>
@@ -3302,10 +3407,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>11</v>
@@ -3317,10 +3422,10 @@
         <v>21</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>49</v>
@@ -3331,10 +3436,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>11</v>
@@ -3346,10 +3451,10 @@
         <v>21</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>49</v>
@@ -3360,10 +3465,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>43</v>
@@ -3375,7 +3480,7 @@
         <v>21</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>35</v>
@@ -3389,10 +3494,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>11</v>
@@ -3404,10 +3509,10 @@
         <v>21</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>49</v>
@@ -3418,10 +3523,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>11</v>
@@ -3433,10 +3538,10 @@
         <v>21</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>49</v>
@@ -3447,10 +3552,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>11</v>
@@ -3462,10 +3567,10 @@
         <v>21</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>49</v>
@@ -3476,10 +3581,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>11</v>
@@ -3491,10 +3596,10 @@
         <v>21</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>49</v>
@@ -3505,10 +3610,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>11</v>
@@ -3520,10 +3625,10 @@
         <v>21</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>49</v>
@@ -3534,10 +3639,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>107</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>43</v>
@@ -3546,10 +3651,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>35</v>
@@ -3563,25 +3668,25 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>49</v>
@@ -3592,25 +3697,25 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B40" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>49</v>
@@ -3621,25 +3726,25 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>49</v>
@@ -3650,25 +3755,25 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>120</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>49</v>
@@ -3679,25 +3784,25 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="C43" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>123</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>49</v>
@@ -3708,25 +3813,25 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="C44" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>49</v>
@@ -3737,25 +3842,25 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="C45" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>129</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>49</v>
@@ -3766,11 +3871,11 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>131</v>
-      </c>
       <c r="C46" s="0" t="s">
         <v>11</v>
       </c>
@@ -3778,13 +3883,13 @@
         <v>12</v>
       </c>
       <c r="E46" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="G46" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>49</v>
@@ -3795,10 +3900,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>43</v>
@@ -3807,10 +3912,10 @@
         <v>12</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>35</v>
@@ -3824,25 +3929,25 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B48" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>49</v>
@@ -3853,25 +3958,25 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="C49" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>49</v>
@@ -3882,25 +3987,25 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="C50" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>49</v>
@@ -3911,25 +4016,25 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>49</v>
@@ -3940,25 +4045,25 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="C52" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G52" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>147</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>49</v>
@@ -3969,10 +4074,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>43</v>
@@ -3981,10 +4086,10 @@
         <v>12</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>35</v>
@@ -3998,25 +4103,25 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="C54" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>152</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>153</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>49</v>
@@ -4027,25 +4132,25 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="C55" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>156</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>49</v>
@@ -4056,25 +4161,25 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="C56" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>159</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>49</v>
@@ -4085,25 +4190,25 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="C57" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>162</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>49</v>
@@ -4114,25 +4219,25 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="C58" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>165</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>49</v>
@@ -4143,25 +4248,25 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="C59" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>168</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>49</v>
@@ -4172,25 +4277,25 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B60" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>49</v>
@@ -4201,25 +4306,25 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B61" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>49</v>
@@ -4230,25 +4335,25 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="C62" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G62" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>49</v>
@@ -4259,10 +4364,10 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>43</v>
@@ -4271,10 +4376,10 @@
         <v>12</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>35</v>
@@ -4288,25 +4393,25 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="C64" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>180</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>49</v>
@@ -4317,25 +4422,25 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="C65" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>183</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>49</v>
@@ -4346,25 +4451,25 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B66" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>185</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>49</v>
@@ -4375,10 +4480,10 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>43</v>
@@ -4387,10 +4492,10 @@
         <v>12</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>35</v>
@@ -4404,25 +4509,25 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B68" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>188</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>49</v>
@@ -4433,25 +4538,25 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="C69" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G69" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>191</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>49</v>
@@ -4462,10 +4567,10 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>43</v>
@@ -4477,7 +4582,7 @@
         <v>13</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>35</v>
@@ -4491,10 +4596,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>195</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>11</v>
@@ -4506,10 +4611,10 @@
         <v>13</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>49</v>
@@ -4520,10 +4625,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>11</v>
@@ -4535,10 +4640,10 @@
         <v>13</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>49</v>
@@ -4549,10 +4654,10 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>11</v>
@@ -4564,10 +4669,10 @@
         <v>13</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>49</v>
@@ -4578,10 +4683,10 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>11</v>
@@ -4593,10 +4698,10 @@
         <v>13</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>49</v>
@@ -4607,10 +4712,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>43</v>
@@ -4622,7 +4727,7 @@
         <v>13</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>35</v>
@@ -4636,10 +4741,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>11</v>
@@ -4651,10 +4756,10 @@
         <v>13</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>49</v>
@@ -4665,10 +4770,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>11</v>
@@ -4680,10 +4785,10 @@
         <v>13</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>49</v>
@@ -4694,10 +4799,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>210</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>43</v>
@@ -4709,7 +4814,7 @@
         <v>21</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>35</v>
@@ -4723,10 +4828,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>11</v>
@@ -4738,10 +4843,10 @@
         <v>21</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>44</v>
@@ -4752,10 +4857,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>11</v>
@@ -4767,10 +4872,10 @@
         <v>21</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>44</v>
@@ -4781,10 +4886,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>11</v>
@@ -4796,10 +4901,10 @@
         <v>21</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>44</v>
@@ -4810,10 +4915,10 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>219</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>11</v>
@@ -4825,10 +4930,10 @@
         <v>21</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>44</v>
@@ -4839,10 +4944,10 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>11</v>
@@ -4854,10 +4959,10 @@
         <v>21</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>44</v>
@@ -4868,10 +4973,10 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>224</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>43</v>
@@ -4880,10 +4985,10 @@
         <v>12</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>35</v>
@@ -4897,25 +5002,25 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="C85" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G85" s="0" t="s">
         <v>227</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>228</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>44</v>
@@ -4926,25 +5031,25 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="C86" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G86" s="0" t="s">
         <v>230</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>231</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>44</v>
@@ -4955,25 +5060,25 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="C87" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G87" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>234</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>44</v>
@@ -4984,10 +5089,10 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>43</v>
@@ -4996,10 +5101,10 @@
         <v>12</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>35</v>
@@ -5013,25 +5118,25 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B89" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="C89" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="G89" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="G89" s="0" t="s">
-        <v>238</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>44</v>
@@ -5042,25 +5147,25 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B90" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="C90" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="G90" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="G90" s="0" t="s">
-        <v>241</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>44</v>
@@ -5071,10 +5176,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B91" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>243</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>43</v>
@@ -5086,7 +5191,7 @@
         <v>13</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>35</v>
@@ -5100,10 +5205,10 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>43</v>
@@ -5115,7 +5220,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>35</v>
@@ -5129,10 +5234,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>11</v>
@@ -5144,10 +5249,10 @@
         <v>13</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>44</v>
@@ -5158,10 +5263,10 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>11</v>
@@ -5173,10 +5278,10 @@
         <v>13</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>44</v>
@@ -5187,10 +5292,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>11</v>
@@ -5202,10 +5307,10 @@
         <v>13</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>44</v>
@@ -5216,10 +5321,10 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>11</v>
@@ -5231,10 +5336,10 @@
         <v>13</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>44</v>
@@ -5245,10 +5350,10 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>11</v>
@@ -5260,10 +5365,10 @@
         <v>13</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>44</v>
@@ -5274,10 +5379,10 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>11</v>
@@ -5289,10 +5394,10 @@
         <v>13</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>44</v>
@@ -5303,10 +5408,10 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>43</v>
@@ -5318,7 +5423,7 @@
         <v>21</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>35</v>
@@ -5332,10 +5437,10 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>11</v>
@@ -5347,10 +5452,10 @@
         <v>21</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>16</v>
